--- a/biology/Médecine/Harald_Schultz-Hencke/Harald_Schultz-Hencke.xlsx
+++ b/biology/Médecine/Harald_Schultz-Hencke/Harald_Schultz-Hencke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harald Julius Alfred Carl-Ludwig Schultz-Hencke, né le 18 août 1892 à Berlin où il est mort le 23 mai 1953, est un psychiatre et psychanalyste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Dankmar, physicien et chimiste, a créé un institut de photographie à Berlin, sa mère meurt de la tuberculose lorsqu'il a dix ans. Il étudie la médecine et obtient son doctorat à l'université de Fribourg-en-Brisgau (1917), puis entreprend des études de philosophie, notamment avec Edmund Husserl et Martin Heidegger, et de psychiatrie. Il s'engage durant la Première Guerre mondiale comme médecin militaire, mais se rallie, dès 1915, au mouvement Freideutsche Jugend.
 </t>
@@ -542,7 +556,9 @@
           <t>Psychanalyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est influencé par Siegfried Bernfeld et se rapproche de la psychanalyse, commençant une analyse didactique en 1922 avec Sándor Radó, puis il s'inscrit dans la formation de l'Institut psychanalytique de Berlin, où il donne des conférences en 1927-1928 et donne, avec Otto Fenichel, un séminaire clinique destiné aux jeunes analystes. Il manifeste des vues divergentes en ce qui concerne la métapsychologie freudienne, qui lui valent une interdiction d'enseigner à l'Institut berlinois. En 1934, il est l'un des membres fondateurs de la Deutsche Allgemeine Ärztliche Gesellschaft für Psychotherapie (Société générale allemande de médecine psychothérapeutique) dirigée par Matthias Göring, sans devenir membre du parti nazi, et il développe la néopsychanalyse. En 1942-1943, il est chef militaire, puis exerce des fonctions thérapeutiques à l'Institut Göring qui est lié de très près au régime nazi. 
 En mai 1945, il fonde avec Werner Kemper l'Institut de psychopathologie et psychothérapie (IPP) qu'il dirige, où il institue la néopsychanalyse, qui doit, dans son orientation, contrer la psychanalyse orthodoxe. Il crée l'Association de néopsychanalyse ( Neopsychoanalytische Vereinnigung ), puis l'Institut de psychothérapie en 1947.
@@ -575,14 +591,50 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Einführung in die Psychoanalyse (1927, « Introduction à la psychanalyse »)
 Schicksal und Neurose (1931, « Destin et névrose »)
 Der gehemmte Mensch (1940, « L'être inhibé »)
-(de) Lehrbuch der analytischen Psychotherapie (1951, « Traité de psychothérapie analytique »), Ed.: Thieme, Stuttgart, 1988,  (ISBN 3-13-401605-2)
-Traductions françaises
-Harald Schultz-Hencke, Analyse des reves, Paris, Payot, coll. « Petite bibliothèque Payot » (no 316), 1977, 251 p. (ISBN 978-2-228-33160-9, OCLC 901878027).</t>
+(de) Lehrbuch der analytischen Psychotherapie (1951, « Traité de psychothérapie analytique »), Ed.: Thieme, Stuttgart, 1988,  (ISBN 3-13-401605-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Harald_Schultz-Hencke</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harald_Schultz-Hencke</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Harald Schultz-Hencke, Analyse des reves, Paris, Payot, coll. « Petite bibliothèque Payot » (no 316), 1977, 251 p. (ISBN 978-2-228-33160-9, OCLC 901878027).</t>
         </is>
       </c>
     </row>
